--- a/kinuage.xlsx
+++ b/kinuage.xlsx
@@ -8,8 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="character" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="skill" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="attribute" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="race" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -43,7 +45,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">きぬあげ</t>
+    <t xml:space="preserve">キヌアゲ・ショーガ・ジョーユ</t>
   </si>
   <si>
     <r>
@@ -120,6 +122,9 @@
     <t xml:space="preserve">精神</t>
   </si>
   <si>
+    <t xml:space="preserve">成長</t>
+  </si>
+  <si>
     <t xml:space="preserve">合計</t>
   </si>
   <si>
@@ -246,6 +251,87 @@
     <t xml:space="preserve">神聖石</t>
   </si>
   <si>
+    <t xml:space="preserve">スキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後の先</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一閃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般アイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドリンク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耐久</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブロードアクス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビッグロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 / 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブライトアクス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 / 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラウンドシールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 /2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バインドシールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 / 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストライクシールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鎧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライトムーヴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ナイトアーマー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装飾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">センシングブレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 / 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">職業</t>
   </si>
   <si>
@@ -679,15 +765,31 @@
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒューマン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドワーフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボックル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エルフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タンエルフ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="M\月D\日"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -721,12 +823,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -769,7 +877,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,16 +886,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -867,13 +987,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -882,6 +1002,8 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -892,13 +1014,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -906,13 +1028,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -920,415 +1042,492 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="3" t="str">
         <f aca="false">C4</f>
         <v>ケモフ</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F7,2,0)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F7,3,0)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F7,4,0)</f>
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F7,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F7,6,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="3" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O13,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O13,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O13,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O13,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O13,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="3" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="B11" s="3" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O13,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O13,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O13,4)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O13,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O13,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <f aca="false">SUM(B9:B11)</f>
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <f aca="false">SUM(B9:B12)</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">SUM(C9:C12)</f>
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <f aca="false">SUM(C9:C11)</f>
+      <c r="D13" s="5" t="n">
+        <f aca="false">SUM(D9:D12)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <f aca="false">SUM(D9:D11)</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <f aca="false">SUM(E9:E11)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <f aca="false">SUM(F9:F11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E13" s="5" t="n">
+        <f aca="false">SUM(E9:E12)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <f aca="false">SUM(F9:F12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <f aca="false">B12</f>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <f aca="false">B13</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <f aca="false">C13</f>
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <f aca="false">C12</f>
+      <c r="D16" s="3" t="n">
+        <f aca="false">D13</f>
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <f aca="false">D12</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <f aca="false">E12</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <f aca="false">F12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="str">
+      <c r="E16" s="3" t="n">
+        <f aca="false">E13</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <f aca="false">F13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="B17" s="3" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O13,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O13,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O13,9,0)</f>
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="str">
+      <c r="E17" s="3" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O13,10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O13,11,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="B18" s="3" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O13,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O13,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O13,9,0)</f>
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <f aca="false">SUM(B15:B17)</f>
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <f aca="false">SUM(C15:C17)</f>
+      <c r="E18" s="3" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O13,10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O13,11,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <f aca="false">SUM(B16:B18)</f>
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">SUM(C16:C18)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">SUM(D15:D17)</f>
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <f aca="false">SUM(E15:E17)</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <f aca="false">SUM(F15:F17)</f>
+      <c r="D19" s="5" t="n">
+        <f aca="false">SUM(D16:D18)</f>
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <f aca="false">SUM(E16:E18)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="F19" s="5" t="n">
+        <f aca="false">SUM(F16:F18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <f aca="false">B12+F12+C3*3</f>
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <f aca="false">B12/2+C3</f>
-        <v>3.5</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <f aca="false">E9/2+C3</f>
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <f aca="false">(C12 +D12)/2</f>
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="str">
+      <c r="B22" s="3" t="n">
+        <f aca="false">B13+F13+C3*3</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <f aca="false">ROUNDUP(B13/2,0)+C3</f>
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">ROUNDUP(E9/2,0)+C3</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <f aca="false">ROUNDUP((C13 +D13)/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B23" s="3" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O13,12,0)</f>
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="str">
+      <c r="C23" s="3" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O13,13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O13,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O13,15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B24" s="3" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O13,12,0)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <f aca="false">SUM(B21:B23)</f>
+      <c r="C24" s="3" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O13,13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O13,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O13,15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <f aca="false">SUM(B22:B24)</f>
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <f aca="false">SUM(C22:C24)</f>
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <f aca="false">SUM(D22:D24)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <f aca="false">SUM(E22:E24)</f>
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">E25*50</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <f aca="false">SUM(C21:C23)</f>
-        <v>7.5</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">SUM(D21:D23)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <f aca="false">SUM(E21:E23)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <f aca="false">E24*50</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>2000</v>
-      </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="D30" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
-        <v>45</v>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="n">
-        <v>0</v>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4" type="list">
+      <formula1>race!$A$2:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3" type="list">
+      <formula1>attribute!$A$2:$A$13</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4" type="list">
+      <formula1>attribute!$A$2:$A$13</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1344,823 +1543,1149 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="2" width="3.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="2" width="3.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="26.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="2" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="3" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="4.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="3" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="26.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="3" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>56</v>
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="3" t="n">
         <f aca="false">B2+G2</f>
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <f aca="false">C2+H2</f>
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <f aca="false">D2+I2</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="2" t="n">
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="3" t="n">
         <f aca="false">B3+G3</f>
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="3" t="n">
         <f aca="false">C3+H3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <f aca="false">D3+I3</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="2" t="n">
+      <c r="M4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="3" t="n">
         <f aca="false">B4+G4</f>
         <v>2</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="3" t="n">
         <f aca="false">C4+H4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <f aca="false">D4+I4</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="2" t="n">
+      <c r="M5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="3" t="n">
         <f aca="false">B5+G5</f>
         <v>2</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="3" t="n">
         <f aca="false">C5+H5</f>
         <v>2</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <f aca="false">D5+I5</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="2" t="n">
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="3" t="n">
         <f aca="false">B6+G6</f>
         <v>1</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="3" t="n">
         <f aca="false">C6+H6</f>
         <v>1</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <f aca="false">D6+I6</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="2" t="n">
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="3" t="n">
         <f aca="false">B7+G7</f>
         <v>1</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="3" t="n">
         <f aca="false">C7+H7</f>
         <v>2</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <f aca="false">D7+I7</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="2" t="n">
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" s="3" t="n">
         <f aca="false">B8+G8</f>
         <v>0</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <f aca="false">C8+H8</f>
         <v>1</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <f aca="false">D8+I8</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="n">
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="2" t="n">
+      <c r="M9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="3" t="n">
         <f aca="false">B9+G9</f>
         <v>2</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <f aca="false">C9+H9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <f aca="false">D9+I9</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="n">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="n">
+      <c r="J10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="2" t="n">
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="3" t="n">
         <f aca="false">B10+G10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <f aca="false">C10+H10</f>
         <v>1</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <f aca="false">D10+I10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="2" t="n">
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="3" t="n">
         <f aca="false">B11+G11</f>
         <v>0</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <f aca="false">C11+H11</f>
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <f aca="false">D11+I11</f>
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="A12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="2" t="n">
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="3" t="n">
         <f aca="false">B12+G12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <f aca="false">C12+H12</f>
         <v>1</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <f aca="false">D12+I12</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="2" t="n">
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" s="3" t="n">
         <f aca="false">B13+G13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <f aca="false">C13+H13</f>
         <v>2</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <f aca="false">D13+I13</f>
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="3.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/kinuage.xlsx
+++ b/kinuage.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -392,379 +392,103 @@
     <t xml:space="preserve">戦士</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">イチモンジブレード（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">イチモンジブレード（→P82）</t>
   </si>
   <si>
     <t xml:space="preserve">騎士</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">トワイライトアーマー（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P88</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">トワイライトアーマー（→P88）</t>
   </si>
   <si>
     <t xml:space="preserve">傭兵</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ブラッドアックス（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">レオソード（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">ブラッドアックス（→P82）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レオソード（→P82）</t>
   </si>
   <si>
     <t xml:space="preserve">盗賊</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ホーミングシューター（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">ホーミングシューター（→P84）</t>
   </si>
   <si>
     <t xml:space="preserve">忍者</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ライトムーヴ（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P88</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">ライトムーヴ（→P88）</t>
   </si>
   <si>
     <t xml:space="preserve">商人</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">クラブライブ（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ラストシューター（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">クラブライブ（→P82）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラストシューター（→P84）</t>
   </si>
   <si>
     <t xml:space="preserve">魔術師</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ヘルアポカリプス（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">ヘルアポカリプス（→P86）</t>
   </si>
   <si>
     <t xml:space="preserve">僧侶</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ホーリーベル（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">ホーリーベル（→P86）</t>
   </si>
   <si>
     <t xml:space="preserve">精霊使い</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">バリアロッド（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">バリアロッド（→P86）</t>
   </si>
   <si>
     <t xml:space="preserve">賢者</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">シャーマニックスカル（→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">P86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">シャーマニックスカル（→P86）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武術家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジェットハンマー（→P77）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">筋肉師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハーディブレード（→P77）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交渉士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スターダストダーツ（→P79）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワンハンドボウ（→P79）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">軍師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アナライズタグス（→P81）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時空術士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブラックスタッフ（→P81）</t>
   </si>
   <si>
     <t xml:space="preserve">ヒューマン</t>
@@ -780,6 +504,24 @@
   </si>
   <si>
     <t xml:space="preserve">タンエルフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストライダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダンピール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーガ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブロウニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レッドドワーフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リトルグレー</t>
   </si>
 </sst>
 </file>
@@ -791,7 +533,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="M\月D\日"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -818,12 +560,69 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,18 +631,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -851,8 +686,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,17 +726,72 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -894,11 +799,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,28 +816,45 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -960,7 +882,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -989,11 +911,14 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="12.76"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1009,476 +934,476 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="4" t="str">
         <f aca="false">C4</f>
         <v>ケモフ</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <f aca="false">VLOOKUP(A9,race!A2:F7,2,0)</f>
+      <c r="B9" s="4" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F13,2,0)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <f aca="false">VLOOKUP(A9,race!A2:F7,3,0)</f>
+      <c r="C9" s="4" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F13,3,0)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">VLOOKUP(A9,race!A2:F7,4,0)</f>
+      <c r="D9" s="4" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F13,4,0)</f>
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <f aca="false">VLOOKUP(A9,race!A2:F7,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="false">VLOOKUP(A9,race!A2:F7,6,0)</f>
+      <c r="E9" s="4" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F13,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">VLOOKUP(A9,race!A2:F13,6,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="4" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <f aca="false">VLOOKUP(A10,attribute!A2:O13,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <f aca="false">VLOOKUP(A10,attribute!A2:O13,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <f aca="false">VLOOKUP(A10,attribute!A2:O13,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <f aca="false">VLOOKUP(A10,attribute!A2:O13,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <f aca="false">VLOOKUP(A10,attribute!A2:O13,6,0)</f>
+      <c r="B10" s="4" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O19,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O19,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O19,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O19,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">VLOOKUP(A10,attribute!A2:O19,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="4" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <f aca="false">VLOOKUP(A11,attribute!A2:O13,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <f aca="false">VLOOKUP(A11,attribute!A2:O13,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <f aca="false">VLOOKUP(A11,attribute!A2:O13,4)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <f aca="false">VLOOKUP(A11,attribute!A2:O13,5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <f aca="false">VLOOKUP(A11,attribute!A2:O13,6,0)</f>
+      <c r="B11" s="4" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O19,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O19,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O19,4)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O19,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">VLOOKUP(A11,attribute!A2:O19,6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <f aca="false">SUM(B9:B12)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <f aca="false">SUM(C9:C12)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <f aca="false">SUM(D9:D12)</f>
         <v>5</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="6" t="n">
         <f aca="false">SUM(E9:E12)</f>
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <f aca="false">SUM(F9:F12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <f aca="false">B13</f>
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <f aca="false">C13</f>
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <f aca="false">D13</f>
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <f aca="false">E13</f>
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <f aca="false">F13</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="4" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B17" s="3" t="n">
-        <f aca="false">VLOOKUP(A17,attribute!A2:O13,7,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <f aca="false">VLOOKUP(A17,attribute!A2:O13,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <f aca="false">VLOOKUP(A17,attribute!A2:O13,9,0)</f>
+      <c r="B17" s="4" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O19,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O19,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O19,9,0)</f>
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <f aca="false">VLOOKUP(A17,attribute!A2:O13,10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <f aca="false">VLOOKUP(A17,attribute!A2:O13,11,0)</f>
+      <c r="E17" s="4" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O19,10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">VLOOKUP(A17,attribute!A2:O19,11,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="4" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <f aca="false">VLOOKUP(A18,attribute!A2:O13,7,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <f aca="false">VLOOKUP(A18,attribute!A2:O13,8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">VLOOKUP(A18,attribute!A2:O13,9,0)</f>
+      <c r="B18" s="4" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O19,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O19,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O19,9,0)</f>
         <v>9</v>
       </c>
-      <c r="E18" s="3" t="n">
-        <f aca="false">VLOOKUP(A18,attribute!A2:O13,10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <f aca="false">VLOOKUP(A18,attribute!A2:O13,11,0)</f>
+      <c r="E18" s="4" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O19,10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="false">VLOOKUP(A18,attribute!A2:O19,11,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <f aca="false">SUM(B16:B18)</f>
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="6" t="n">
         <f aca="false">SUM(C16:C18)</f>
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <f aca="false">SUM(D16:D18)</f>
         <v>22</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="6" t="n">
         <f aca="false">SUM(E16:E18)</f>
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <f aca="false">SUM(F16:F18)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <f aca="false">B13+F13+C3*3</f>
         <v>13</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">ROUNDUP(B13/2,0)+C3</f>
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <f aca="false">ROUNDUP(E9/2,0)+C3</f>
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <f aca="false">ROUNDUP((C13 +D13)/2,0)</f>
         <v>5</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="4" t="str">
         <f aca="false">E3</f>
         <v>侍</v>
       </c>
-      <c r="B23" s="3" t="n">
-        <f aca="false">VLOOKUP(A23,attribute!A2:O13,12,0)</f>
+      <c r="B23" s="4" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O19,12,0)</f>
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <f aca="false">VLOOKUP(A23,attribute!A2:O13,13,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <f aca="false">VLOOKUP(A23,attribute!A2:O13,14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <f aca="false">VLOOKUP(A23,attribute!A2:O13,15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="C23" s="4" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O19,13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O19,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">VLOOKUP(A23,attribute!A2:O19,15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="4" t="str">
         <f aca="false">E4</f>
         <v>狩人</v>
       </c>
-      <c r="B24" s="3" t="n">
-        <f aca="false">VLOOKUP(A24,attribute!A2:O13,12,0)</f>
+      <c r="B24" s="4" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O19,12,0)</f>
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <f aca="false">VLOOKUP(A24,attribute!A2:O13,13,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">VLOOKUP(A24,attribute!A2:O13,14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <f aca="false">VLOOKUP(A24,attribute!A2:O13,15,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="4" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O19,13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O19,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">VLOOKUP(A24,attribute!A2:O19,15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <f aca="false">SUM(B22:B24)</f>
         <v>42</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="6" t="n">
         <f aca="false">SUM(C22:C24)</f>
         <v>9</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="6" t="n">
         <f aca="false">SUM(D22:D24)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="6" t="n">
         <f aca="false">SUM(E22:E24)</f>
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <f aca="false">E25*50</f>
         <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1486,26 +1411,26 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1515,16 +1440,16 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4" type="list">
-      <formula1>race!$A$2:$A$7</formula1>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3" type="list">
+      <formula1>attribute!$A$2:$A$19</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3" type="list">
-      <formula1>attribute!$A$2:$A$13</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4" type="list">
+      <formula1>race!$A$2:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4" type="list">
-      <formula1>attribute!$A$2:$A$13</formula1>
+      <formula1>attribute!$A$2:$A$19</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1551,138 +1476,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="16.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1702,823 +1627,1195 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="3" width="3.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="4.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="3" width="3.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="26.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="3" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="4" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="4.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="4" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="26.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="4" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <f aca="false">B2+G2</f>
         <v>2</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <f aca="false">C2+H2</f>
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <f aca="false">D2+I2</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <f aca="false">B3+G3</f>
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <f aca="false">C3+H3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <f aca="false">D3+I3</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <f aca="false">B4+G4</f>
         <v>2</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <f aca="false">C4+H4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <f aca="false">D4+I4</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="4" t="n">
         <f aca="false">B5+G5</f>
         <v>2</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="4" t="n">
         <f aca="false">C5+H5</f>
         <v>2</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="4" t="n">
         <f aca="false">D5+I5</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="4" t="n">
         <f aca="false">B6+G6</f>
         <v>1</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="4" t="n">
         <f aca="false">C6+H6</f>
         <v>1</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="4" t="n">
         <f aca="false">D6+I6</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="n">
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <f aca="false">B7+G7</f>
         <v>1</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="4" t="n">
         <f aca="false">C7+H7</f>
         <v>2</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="4" t="n">
         <f aca="false">D7+I7</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="n">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="4" t="n">
         <f aca="false">B8+G8</f>
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="4" t="n">
         <f aca="false">C8+H8</f>
         <v>1</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="4" t="n">
         <f aca="false">D8+I8</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="n">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <f aca="false">B9+G9</f>
         <v>2</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <f aca="false">C9+H9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <f aca="false">D9+I9</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="n">
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <f aca="false">B10+G10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <f aca="false">C10+H10</f>
         <v>1</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <f aca="false">D10+I10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="n">
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <f aca="false">B11+G11</f>
         <v>0</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <f aca="false">C11+H11</f>
         <v>1</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <f aca="false">D11+I11</f>
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="n">
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="4" t="n">
         <f aca="false">B12+G12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="n">
+      <c r="S12" s="4" t="n">
         <f aca="false">C12+H12</f>
         <v>1</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="4" t="n">
         <f aca="false">D12+I12</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="n">
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="4" t="n">
         <f aca="false">B13+G13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="4" t="n">
         <f aca="false">C13+H13</f>
         <v>2</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="4" t="n">
         <f aca="false">D13+I13</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <f aca="false">B14+G14</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <f aca="false">C14+H14</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <f aca="false">D14+I14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <f aca="false">B15+G15</f>
+        <v>2</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <f aca="false">C15+H15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <f aca="false">D15+I15</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <f aca="false">B16+G16</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <f aca="false">C16+H16</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <f aca="false">D16+I16</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <f aca="false">B17+G17</f>
+        <v>2</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <f aca="false">C17+H17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <f aca="false">D17+I17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <f aca="false">B18+G18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <f aca="false">C18+H18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <f aca="false">D18+I18</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <f aca="false">B19+G19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <f aca="false">C19+H19</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <f aca="false">D19+I19</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2537,15 +2834,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="4" width="3.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2867,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
@@ -2590,7 +2887,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -2610,7 +2907,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -2650,7 +2947,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -2670,7 +2967,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -2686,6 +2983,126 @@
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
